--- a/pidis/expdata/90001.xlsx
+++ b/pidis/expdata/90001.xlsx
@@ -15,12 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="75">
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
   <si>
     <t>Q2</t>
   </si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>obs</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>pol_u</t>
   </si>
   <si>
     <t>stat_u</t>
@@ -822,49 +822,49 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>2.510790786460725</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B2">
-        <v>0.001092577133214109</v>
+        <v>1.58489</v>
       </c>
       <c r="C2">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D2">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E2">
-        <v>3.98107</v>
+        <v>0.0004349633223617825</v>
       </c>
       <c r="F2">
-        <v>140.7</v>
+        <v>0.0003254</v>
       </c>
       <c r="G2">
-        <v>0.0004349633223617825</v>
+        <v>0.000581417</v>
       </c>
       <c r="H2">
-        <v>0.0003254</v>
-      </c>
-      <c r="I2">
-        <v>0.000581417</v>
+        <v>0.2917279080142555</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
       </c>
       <c r="J2">
-        <v>0.2917279080142555</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>3.881566576244013e-10</v>
       </c>
       <c r="N2">
-        <v>9.648730705585359e-06</v>
+        <v>9.551349397579324e-06</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.881566576244013e-10</v>
       </c>
       <c r="P2" t="s">
         <v>74</v>
@@ -1040,49 +1040,49 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>2.509931174668025</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B3">
-        <v>0.001952188925913572</v>
+        <v>1.58489</v>
       </c>
       <c r="C3">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D3">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E3">
-        <v>3.98107</v>
+        <v>0.0007771813588989379</v>
       </c>
       <c r="F3">
-        <v>140.7</v>
+        <v>0.000581417</v>
       </c>
       <c r="G3">
-        <v>0.0007771813588989379</v>
+        <v>0.00103886</v>
       </c>
       <c r="H3">
-        <v>0.000581417</v>
-      </c>
-      <c r="I3">
-        <v>0.00103886</v>
+        <v>0.1632706943399984</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
       </c>
       <c r="J3">
-        <v>0.1632706943399984</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M3">
+        <v>8.478209491289568e-11</v>
       </c>
       <c r="N3">
-        <v>2.409072434860371e-06</v>
+        <v>2.374114678216113e-06</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>8.478209491289568e-11</v>
       </c>
       <c r="P3" t="s">
         <v>74</v>
@@ -1258,49 +1258,49 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>6.304668411442897</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B4">
-        <v>0.004903681813507828</v>
+        <v>3.98107</v>
       </c>
       <c r="C4">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0.0007771813588989379</v>
       </c>
       <c r="F4">
-        <v>140.7</v>
+        <v>0.000581417</v>
       </c>
       <c r="G4">
-        <v>0.0007771813588989379</v>
+        <v>0.00103886</v>
       </c>
       <c r="H4">
-        <v>0.000581417</v>
-      </c>
-      <c r="I4">
-        <v>0.00103886</v>
+        <v>0.4101178548275871</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>0.4101178548275871</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M4">
+        <v>1.302905866105327e-09</v>
       </c>
       <c r="N4">
-        <v>3.708875377107342e-06</v>
+        <v>3.65571627107604e-06</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.302905866105327e-09</v>
       </c>
       <c r="P4" t="s">
         <v>74</v>
@@ -1476,49 +1476,49 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>2.508395242641626</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B5">
-        <v>0.003488120952313114</v>
+        <v>1.58489</v>
       </c>
       <c r="C5">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D5">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E5">
-        <v>3.98107</v>
+        <v>0.001388647658911359</v>
       </c>
       <c r="F5">
-        <v>140.7</v>
+        <v>0.00103886</v>
       </c>
       <c r="G5">
-        <v>0.001388647658911359</v>
+        <v>0.00185621</v>
       </c>
       <c r="H5">
-        <v>0.00103886</v>
-      </c>
-      <c r="I5">
-        <v>0.00185621</v>
+        <v>0.09137734779678394</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
       </c>
       <c r="J5">
-        <v>0.09137734779678394</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <v>-2.25879623313453e-10</v>
       </c>
       <c r="N5">
-        <v>1.36058943351428e-06</v>
+        <v>1.332047289196588e-06</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>-2.25879623313453e-10</v>
       </c>
       <c r="P5" t="s">
         <v>74</v>
@@ -1694,49 +1694,49 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>6.300810320740371</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B6">
-        <v>0.00876177251603295</v>
+        <v>3.98107</v>
       </c>
       <c r="C6">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>0.001388647658911359</v>
       </c>
       <c r="F6">
-        <v>140.7</v>
+        <v>0.00103886</v>
       </c>
       <c r="G6">
-        <v>0.001388647658911359</v>
+        <v>0.00185621</v>
       </c>
       <c r="H6">
-        <v>0.00103886</v>
-      </c>
-      <c r="I6">
-        <v>0.00185621</v>
+        <v>0.2295297512498576</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
       </c>
       <c r="J6">
-        <v>0.2295297512498576</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <v>2.321577619638737e-10</v>
       </c>
       <c r="N6">
-        <v>1.403699651554236e-06</v>
+        <v>1.378427877419914e-06</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.321577619638737e-10</v>
       </c>
       <c r="P6" t="s">
         <v>74</v>
@@ -1912,49 +1912,49 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>2.505650883770345</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B7">
-        <v>0.00623247982359454</v>
+        <v>1.58489</v>
       </c>
       <c r="C7">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D7">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E7">
-        <v>3.98107</v>
+        <v>0.002481197938536949</v>
       </c>
       <c r="F7">
-        <v>140.7</v>
+        <v>0.00185621</v>
       </c>
       <c r="G7">
-        <v>0.002481197938536949</v>
+        <v>0.00331662</v>
       </c>
       <c r="H7">
-        <v>0.00185621</v>
-      </c>
-      <c r="I7">
-        <v>0.00331662</v>
+        <v>0.05114099851717389</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
       </c>
       <c r="J7">
-        <v>0.05114099851717389</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M7">
+        <v>-6.089269915549025e-10</v>
       </c>
       <c r="N7">
-        <v>7.826473230969595e-07</v>
+        <v>7.612757652075307e-07</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>-6.089269915549025e-10</v>
       </c>
       <c r="P7" t="s">
         <v>74</v>
@@ -2130,49 +2130,49 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>6.293916795985567</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B8">
-        <v>0.01565529727083806</v>
+        <v>3.98107</v>
       </c>
       <c r="C8">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>0.002481197938536949</v>
       </c>
       <c r="F8">
-        <v>140.7</v>
+        <v>0.00185621</v>
       </c>
       <c r="G8">
-        <v>0.002481197938536949</v>
+        <v>0.00331662</v>
       </c>
       <c r="H8">
-        <v>0.00185621</v>
-      </c>
-      <c r="I8">
-        <v>0.00331662</v>
+        <v>0.128460509648644</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
       </c>
       <c r="J8">
-        <v>0.128460509648644</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M8">
+        <v>-8.756402951276045e-10</v>
       </c>
       <c r="N8">
-        <v>7.94664151854039e-07</v>
+        <v>7.764278764133593e-07</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>-8.756402951276045e-10</v>
       </c>
       <c r="P8" t="s">
         <v>74</v>
@@ -2348,49 +2348,49 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>15.80961881728109</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B9">
-        <v>0.03932436515224281</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E9">
-        <v>25.1189</v>
+        <v>0.002481197938536949</v>
       </c>
       <c r="F9">
-        <v>140.7</v>
+        <v>0.00185621</v>
       </c>
       <c r="G9">
-        <v>0.002481197938536949</v>
+        <v>0.00331662</v>
       </c>
       <c r="H9">
-        <v>0.00185621</v>
-      </c>
-      <c r="I9">
-        <v>0.00331662</v>
+        <v>0.3226785094957234</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
       </c>
       <c r="J9">
-        <v>0.3226785094957234</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>4.846558732024763e-10</v>
       </c>
       <c r="N9">
-        <v>1.346191968241335e-06</v>
+        <v>1.319439721879225e-06</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.846558732024763e-10</v>
       </c>
       <c r="P9" t="s">
         <v>74</v>
@@ -2566,49 +2566,49 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>2.500747334693106</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B10">
-        <v>0.01113602890083275</v>
+        <v>1.58489</v>
       </c>
       <c r="C10">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D10">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E10">
-        <v>3.98107</v>
+        <v>0.004433338371611173</v>
       </c>
       <c r="F10">
-        <v>140.7</v>
+        <v>0.00331662</v>
       </c>
       <c r="G10">
-        <v>0.004433338371611173</v>
+        <v>0.00592606</v>
       </c>
       <c r="H10">
-        <v>0.00331662</v>
-      </c>
-      <c r="I10">
-        <v>0.00592606</v>
+        <v>0.02862198403534402</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
       </c>
       <c r="J10">
-        <v>0.02862198403534402</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L10">
-        <v>8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M10">
+        <v>-1.142790648677237e-09</v>
       </c>
       <c r="N10">
-        <v>4.550250942793199e-07</v>
+        <v>4.39489232115612e-07</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>-1.142790648677237e-09</v>
       </c>
       <c r="P10" t="s">
         <v>74</v>
@@ -2784,49 +2784,49 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>6.281599625186923</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B11">
-        <v>0.02797246806948065</v>
+        <v>3.98107</v>
       </c>
       <c r="C11">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>0.004433338371611173</v>
       </c>
       <c r="F11">
-        <v>140.7</v>
+        <v>0.00331662</v>
       </c>
       <c r="G11">
-        <v>0.004433338371611173</v>
+        <v>0.00592606</v>
       </c>
       <c r="H11">
-        <v>0.00331662</v>
-      </c>
-      <c r="I11">
-        <v>0.00592606</v>
+        <v>0.07189524575084165</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
       </c>
       <c r="J11">
-        <v>0.07189524575084165</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <v>-2.289443844225694e-09</v>
       </c>
       <c r="N11">
-        <v>4.609485405481717e-07</v>
+        <v>4.473861081432195e-07</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>-2.289443844225694e-09</v>
       </c>
       <c r="P11" t="s">
         <v>74</v>
@@ -3002,49 +3002,49 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>15.77867945447316</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B12">
-        <v>0.07026372796016697</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D12">
+        <v>140.7</v>
+      </c>
+      <c r="E12">
+        <v>0.004433338371611173</v>
+      </c>
+      <c r="F12">
+        <v>0.00331662</v>
+      </c>
+      <c r="G12">
+        <v>0.00592606</v>
+      </c>
+      <c r="H12">
+        <v>0.1805928592542775</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>25.1189</v>
-      </c>
-      <c r="F12">
-        <v>140.7</v>
-      </c>
-      <c r="G12">
-        <v>0.004433338371611173</v>
-      </c>
-      <c r="H12">
-        <v>0.00331662</v>
-      </c>
-      <c r="I12">
-        <v>0.00592606</v>
-      </c>
-      <c r="J12">
-        <v>0.1805928592542775</v>
-      </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M12">
+        <v>-4.013973667290428e-09</v>
       </c>
       <c r="N12">
-        <v>6.851410132739067e-07</v>
+        <v>6.677966131559736e-07</v>
       </c>
       <c r="O12">
-        <v>-0</v>
+        <v>-4.013973667290428e-09</v>
       </c>
       <c r="P12" t="s">
         <v>74</v>
@@ -3220,49 +3220,49 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>39.63424000938539</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B13">
-        <v>0.1764944567105666</v>
+        <v>25.1189</v>
       </c>
       <c r="C13">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D13">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E13">
-        <v>63.0957</v>
+        <v>0.004433338371611173</v>
       </c>
       <c r="F13">
-        <v>140.7</v>
+        <v>0.00331662</v>
       </c>
       <c r="G13">
-        <v>0.004433338371611173</v>
+        <v>0.00592606</v>
       </c>
       <c r="H13">
-        <v>0.00331662</v>
-      </c>
-      <c r="I13">
-        <v>0.00592606</v>
+        <v>0.4536286289557668</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
       </c>
       <c r="J13">
-        <v>0.4536286289557668</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M13">
+        <v>-2.92104425005541e-09</v>
       </c>
       <c r="N13">
-        <v>1.400841264439477e-06</v>
+        <v>1.370393380813671e-06</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>-2.92104425005541e-09</v>
       </c>
       <c r="P13" t="s">
         <v>74</v>
@@ -3438,49 +3438,49 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>2.491985808669057</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B14">
-        <v>0.01989755492488246</v>
+        <v>1.58489</v>
       </c>
       <c r="C14">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D14">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E14">
-        <v>3.98107</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F14">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G14">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H14">
-        <v>0.00592606</v>
-      </c>
-      <c r="I14">
-        <v>0.0105885</v>
+        <v>0.01601881450359396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
       </c>
       <c r="J14">
-        <v>0.01601881450359396</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M14">
+        <v>-1.941237614472291e-09</v>
       </c>
       <c r="N14">
-        <v>2.667007759051881e-07</v>
+        <v>2.550743880612185e-07</v>
       </c>
       <c r="O14">
-        <v>-0</v>
+        <v>-1.941237614472291e-09</v>
       </c>
       <c r="P14" t="s">
         <v>74</v>
@@ -3656,49 +3656,49 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>6.259591644682372</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B15">
-        <v>0.0499804485740326</v>
+        <v>3.98107</v>
       </c>
       <c r="C15">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F15">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G15">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H15">
-        <v>0.00592606</v>
-      </c>
-      <c r="I15">
-        <v>0.0105885</v>
+        <v>0.04023748332578482</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
       </c>
       <c r="J15">
-        <v>0.04023748332578482</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M15">
+        <v>-4.347304426600939e-09</v>
       </c>
       <c r="N15">
-        <v>2.735300191201212e-07</v>
+        <v>2.608017517537972e-07</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>-4.347304426600939e-09</v>
       </c>
       <c r="P15" t="s">
         <v>74</v>
@@ -3874,49 +3874,49 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>15.72339785574961</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B16">
-        <v>0.1255453266837224</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E16">
-        <v>25.1189</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F16">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G16">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H16">
-        <v>0.00592606</v>
-      </c>
-      <c r="I16">
-        <v>0.0105885</v>
+        <v>0.1010720818478422</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
       </c>
       <c r="J16">
-        <v>0.1010720818478422</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M16">
+        <v>-9.869928196723406e-09</v>
       </c>
       <c r="N16">
-        <v>4.090000435407429e-07</v>
+        <v>3.855432188188099e-07</v>
       </c>
       <c r="O16">
-        <v>-0</v>
+        <v>-9.869928196723406e-09</v>
       </c>
       <c r="P16" t="s">
         <v>74</v>
@@ -4092,49 +4092,49 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>39.49537894954614</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B17">
-        <v>0.3153555165498158</v>
+        <v>25.1189</v>
       </c>
       <c r="C17">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D17">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E17">
-        <v>63.0957</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F17">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G17">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H17">
-        <v>0.00592606</v>
-      </c>
-      <c r="I17">
-        <v>0.0105885</v>
+        <v>0.2538815216928668</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
       </c>
       <c r="J17">
-        <v>0.2538815216928668</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M17">
+        <v>-2.216991256901532e-08</v>
       </c>
       <c r="N17">
-        <v>6.696524604934029e-07</v>
+        <v>6.158849278292432e-07</v>
       </c>
       <c r="O17">
-        <v>-0</v>
+        <v>-2.216991256901532e-08</v>
       </c>
       <c r="P17" t="s">
         <v>74</v>
@@ -4310,49 +4310,49 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>2.47633093916566</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B18">
-        <v>0.03555242442827922</v>
+        <v>1.58489</v>
       </c>
       <c r="C18">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D18">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E18">
-        <v>3.98107</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F18">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G18">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H18">
-        <v>0.0105885</v>
-      </c>
-      <c r="I18">
-        <v>0.0189193</v>
+        <v>0.008965218168447472</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
       </c>
       <c r="J18">
-        <v>0.008965218168447472</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L18">
-        <v>16</v>
-      </c>
-      <c r="M18" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M18">
+        <v>-3.176496078790576e-09</v>
       </c>
       <c r="N18">
-        <v>1.590912163549273e-07</v>
+        <v>1.483689585067569e-07</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>-3.176496078790576e-09</v>
       </c>
       <c r="P18" t="s">
         <v>74</v>
@@ -4528,49 +4528,49 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>6.220268350785128</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B19">
-        <v>0.08930374247127687</v>
+        <v>3.98107</v>
       </c>
       <c r="C19">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F19">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G19">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H19">
-        <v>0.0105885</v>
-      </c>
-      <c r="I19">
-        <v>0.0189193</v>
+        <v>0.02251963255358214</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
       </c>
       <c r="J19">
-        <v>0.02251963255358214</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L19">
-        <v>17</v>
-      </c>
-      <c r="M19" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M19">
+        <v>-7.542496212561859e-09</v>
       </c>
       <c r="N19">
-        <v>1.762577392799976e-07</v>
+        <v>1.528592307872125e-07</v>
       </c>
       <c r="O19">
-        <v>-0</v>
+        <v>-7.542496212561859e-09</v>
       </c>
       <c r="P19" t="s">
         <v>74</v>
@@ -4746,49 +4746,49 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>15.62462211604617</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B20">
-        <v>0.2243210663871573</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E20">
-        <v>25.1189</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F20">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G20">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H20">
-        <v>0.0105885</v>
-      </c>
-      <c r="I20">
-        <v>0.0189193</v>
+        <v>0.05656681175138058</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
       </c>
       <c r="J20">
-        <v>0.05656681175138058</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L20">
-        <v>18</v>
-      </c>
-      <c r="M20" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M20">
+        <v>-1.860198794109585e-08</v>
       </c>
       <c r="N20">
-        <v>2.990456644504659e-07</v>
+        <v>2.261796516602101e-07</v>
       </c>
       <c r="O20">
-        <v>-0</v>
+        <v>-1.860198794109585e-08</v>
       </c>
       <c r="P20" t="s">
         <v>74</v>
@@ -4964,49 +4964,49 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>39.24726557695332</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B21">
-        <v>0.5634688891426449</v>
+        <v>25.1189</v>
       </c>
       <c r="C21">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D21">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E21">
-        <v>63.0957</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F21">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G21">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H21">
-        <v>0.0105885</v>
-      </c>
-      <c r="I21">
-        <v>0.0189193</v>
+        <v>0.1420893681241716</v>
+      </c>
+      <c r="I21" t="s">
+        <v>72</v>
       </c>
       <c r="J21">
-        <v>0.1420893681241716</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L21">
-        <v>19</v>
-      </c>
-      <c r="M21" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M21">
+        <v>-4.79062162397652e-08</v>
       </c>
       <c r="N21">
-        <v>5.988473832322548e-07</v>
+        <v>3.485360234889065e-07</v>
       </c>
       <c r="O21">
-        <v>-0</v>
+        <v>-4.79062162397652e-08</v>
       </c>
       <c r="P21" t="s">
         <v>74</v>
@@ -5182,49 +5182,49 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>98.58450456006271</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B22">
-        <v>1.41536742635533</v>
+        <v>63.0957</v>
       </c>
       <c r="C22">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D22">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E22">
-        <v>158.489</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F22">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G22">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H22">
-        <v>0.0105885</v>
-      </c>
-      <c r="I22">
-        <v>0.0189193</v>
+        <v>0.3569117428654559</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
       </c>
       <c r="J22">
-        <v>0.3569117428654559</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M22">
+        <v>-1.387402853870619e-07</v>
       </c>
       <c r="N22">
-        <v>1.53407685075624e-06</v>
+        <v>6.364526489880525e-07</v>
       </c>
       <c r="O22">
-        <v>-0</v>
+        <v>-1.387402853870619e-07</v>
       </c>
       <c r="P22" t="s">
         <v>74</v>
@@ -5400,49 +5400,49 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>2.448359155490442</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B23">
-        <v>0.06352420810349738</v>
+        <v>1.58489</v>
       </c>
       <c r="C23">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D23">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E23">
-        <v>3.98107</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F23">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G23">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H23">
-        <v>0.0189193</v>
-      </c>
-      <c r="I23">
-        <v>0.0338045</v>
+        <v>0.005017539784163266</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
       </c>
       <c r="J23">
-        <v>0.005017539784163266</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M23">
+        <v>-5.075646098437806e-09</v>
       </c>
       <c r="N23">
-        <v>1.039138558406203e-07</v>
+        <v>8.596323399845827e-08</v>
       </c>
       <c r="O23">
-        <v>-0</v>
+        <v>-5.075646098437806e-09</v>
       </c>
       <c r="P23" t="s">
         <v>74</v>
@@ -5618,49 +5618,49 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>6.150006336141564</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B24">
-        <v>0.1595657571148406</v>
+        <v>3.98107</v>
       </c>
       <c r="C24">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F24">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G24">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H24">
-        <v>0.0189193</v>
-      </c>
-      <c r="I24">
-        <v>0.0338045</v>
+        <v>0.01260350279706622</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
       </c>
       <c r="J24">
-        <v>0.01260350279706622</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M24">
+        <v>-1.257357449484197e-08</v>
       </c>
       <c r="N24">
-        <v>1.567173418032065e-07</v>
+        <v>8.944117469393166e-08</v>
       </c>
       <c r="O24">
-        <v>-0</v>
+        <v>-1.257357449484197e-08</v>
       </c>
       <c r="P24" t="s">
         <v>74</v>
@@ -5836,49 +5836,49 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>15.44813175164265</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B25">
-        <v>0.4008114307906832</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E25">
-        <v>25.1189</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F25">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G25">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H25">
-        <v>0.0189193</v>
-      </c>
-      <c r="I25">
-        <v>0.0338045</v>
+        <v>0.03165859693462173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
       </c>
       <c r="J25">
-        <v>0.03165859693462173</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M25">
+        <v>-3.231801097513065e-08</v>
       </c>
       <c r="N25">
-        <v>3.516472694501103e-07</v>
+        <v>1.334336613442292e-07</v>
       </c>
       <c r="O25">
-        <v>-0</v>
+        <v>-3.231801097513065e-08</v>
       </c>
       <c r="P25" t="s">
         <v>74</v>
@@ -6054,49 +6054,49 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>38.80394194633541</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B26">
-        <v>1.006792519760553</v>
+        <v>25.1189</v>
       </c>
       <c r="C26">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D26">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E26">
-        <v>63.0957</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F26">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G26">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H26">
-        <v>0.0189193</v>
-      </c>
-      <c r="I26">
-        <v>0.0338045</v>
+        <v>0.0795227783723987</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
       </c>
       <c r="J26">
-        <v>0.0795227783723987</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L26">
-        <v>24</v>
-      </c>
-      <c r="M26" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M26">
+        <v>-8.679712070738341e-08</v>
       </c>
       <c r="N26">
-        <v>8.934807387774918e-07</v>
+        <v>2.049518862058669e-07</v>
       </c>
       <c r="O26">
-        <v>-0</v>
+        <v>-8.679712070738341e-08</v>
       </c>
       <c r="P26" t="s">
         <v>74</v>
@@ -6272,49 +6272,49 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>97.4709278600875</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B27">
-        <v>2.52894412633055</v>
+        <v>63.0957</v>
       </c>
       <c r="C27">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D27">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E27">
-        <v>158.489</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F27">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G27">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H27">
-        <v>0.0189193</v>
-      </c>
-      <c r="I27">
-        <v>0.0338045</v>
+        <v>0.1997518449205342</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
       </c>
       <c r="J27">
-        <v>0.1997518449205342</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M27">
+        <v>-2.58906320700253e-07</v>
       </c>
       <c r="N27">
-        <v>2.611213633225816e-06</v>
+        <v>3.291591614431467e-07</v>
       </c>
       <c r="O27">
-        <v>-0</v>
+        <v>-2.58906320700253e-07</v>
       </c>
       <c r="P27" t="s">
         <v>74</v>
@@ -6490,49 +6490,49 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>2.398379890199623</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B28">
-        <v>0.1135034733943162</v>
+        <v>1.58489</v>
       </c>
       <c r="C28">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D28">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E28">
-        <v>3.98107</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F28">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G28">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H28">
-        <v>0.0338045</v>
-      </c>
-      <c r="I28">
-        <v>0.0604011</v>
+        <v>0.002808154075685984</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
       </c>
       <c r="J28">
-        <v>0.002808154075685984</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M28">
+        <v>-7.837340557847892e-09</v>
       </c>
       <c r="N28">
-        <v>9.372433400111182e-08</v>
+        <v>4.911022076556026e-08</v>
       </c>
       <c r="O28">
-        <v>-0</v>
+        <v>-7.837340557847892e-09</v>
       </c>
       <c r="P28" t="s">
         <v>74</v>
@@ -6708,49 +6708,49 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>6.024463971360256</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B29">
-        <v>0.2851081218961484</v>
+        <v>3.98107</v>
       </c>
       <c r="C29">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F29">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G29">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H29">
-        <v>0.0338045</v>
-      </c>
-      <c r="I29">
-        <v>0.0604011</v>
+        <v>0.007053771224537151</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
       </c>
       <c r="J29">
-        <v>0.007053771224537151</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L29">
-        <v>27</v>
-      </c>
-      <c r="M29" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M29">
+        <v>-2.025248111895817e-08</v>
       </c>
       <c r="N29">
-        <v>2.095697123632055e-07</v>
+        <v>5.182462871524582e-08</v>
       </c>
       <c r="O29">
-        <v>-0</v>
+        <v>-2.025248111895817e-08</v>
       </c>
       <c r="P29" t="s">
         <v>74</v>
@@ -6926,49 +6926,49 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>15.13278329742119</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B30">
-        <v>0.7161598850121429</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E30">
-        <v>25.1189</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F30">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G30">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H30">
-        <v>0.0338045</v>
-      </c>
-      <c r="I30">
-        <v>0.0604011</v>
+        <v>0.01771828861089605</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
       </c>
       <c r="J30">
-        <v>0.01771828861089605</v>
+        <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L30">
-        <v>28</v>
-      </c>
-      <c r="M30" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M30">
+        <v>-5.359647222345897e-08</v>
       </c>
       <c r="N30">
-        <v>5.42063546327151e-07</v>
+        <v>7.844043647647823e-08</v>
       </c>
       <c r="O30">
-        <v>-0</v>
+        <v>-5.359647222345897e-08</v>
       </c>
       <c r="P30" t="s">
         <v>74</v>
@@ -7144,49 +7144,49 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>38.01182265921352</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B31">
-        <v>1.798911806882438</v>
+        <v>25.1189</v>
       </c>
       <c r="C31">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D31">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E31">
-        <v>63.0957</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F31">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G31">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H31">
-        <v>0.0338045</v>
-      </c>
-      <c r="I31">
-        <v>0.0604011</v>
+        <v>0.04450631660184525</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
       </c>
       <c r="J31">
-        <v>0.04450631660184525</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L31">
-        <v>29</v>
-      </c>
-      <c r="M31" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M31">
+        <v>-1.465431344480296e-07</v>
       </c>
       <c r="N31">
-        <v>1.47074378909752e-06</v>
+        <v>1.212873130782125e-07</v>
       </c>
       <c r="O31">
-        <v>-0</v>
+        <v>-1.465431344480296e-07</v>
       </c>
       <c r="P31" t="s">
         <v>74</v>
@@ -7362,49 +7362,49 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>95.481217587909</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B32">
-        <v>4.518654398509035</v>
+        <v>63.0957</v>
       </c>
       <c r="C32">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D32">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E32">
-        <v>158.489</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F32">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G32">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H32">
-        <v>0.0338045</v>
-      </c>
-      <c r="I32">
-        <v>0.0604011</v>
+        <v>0.1117946207840453</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
       </c>
       <c r="J32">
-        <v>0.1117946207840453</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L32">
-        <v>30</v>
-      </c>
-      <c r="M32" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M32">
+        <v>-4.329568909402591e-07</v>
       </c>
       <c r="N32">
-        <v>4.334079793697941e-06</v>
+        <v>1.925409506922505e-07</v>
       </c>
       <c r="O32">
-        <v>-0</v>
+        <v>-4.329568909402591e-07</v>
       </c>
       <c r="P32" t="s">
         <v>74</v>
@@ -7580,49 +7580,49 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>239.8379890199622</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B33">
-        <v>11.35034733943161</v>
+        <v>158.489</v>
       </c>
       <c r="C33">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D33">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E33">
-        <v>398.107</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F33">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G33">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H33">
-        <v>0.0338045</v>
-      </c>
-      <c r="I33">
-        <v>0.0604011</v>
+        <v>0.2808154075685983</v>
+      </c>
+      <c r="I33" t="s">
+        <v>72</v>
       </c>
       <c r="J33">
-        <v>0.2808154075685983</v>
+        <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L33">
-        <v>31</v>
-      </c>
-      <c r="M33" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M33">
+        <v>-1.523254804412058e-06</v>
       </c>
       <c r="N33">
-        <v>1.523624835798811e-05</v>
+        <v>3.279919976158941e-07</v>
       </c>
       <c r="O33">
-        <v>-0</v>
+        <v>-1.523254804412058e-06</v>
       </c>
       <c r="P33" t="s">
         <v>74</v>
@@ -7798,49 +7798,49 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>2.309078251466859</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B34">
-        <v>0.2028051121270798</v>
+        <v>1.58489</v>
       </c>
       <c r="C34">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D34">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E34">
-        <v>3.98107</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F34">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G34">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H34">
-        <v>0.0604011</v>
-      </c>
-      <c r="I34">
-        <v>0.107923</v>
+        <v>0.001571633170750852</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
       </c>
       <c r="J34">
-        <v>0.001571633170750852</v>
+        <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L34">
-        <v>32</v>
-      </c>
-      <c r="M34" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M34">
+        <v>-1.165369184861983e-08</v>
       </c>
       <c r="N34">
-        <v>1.207647512083725e-07</v>
+        <v>3.091044345166142e-08</v>
       </c>
       <c r="O34">
-        <v>-0</v>
+        <v>-1.165369184861983e-08</v>
       </c>
       <c r="P34" t="s">
         <v>74</v>
@@ -8016,49 +8016,49 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>5.800148170795324</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B35">
-        <v>0.5094239224610813</v>
+        <v>3.98107</v>
       </c>
       <c r="C35">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F35">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G35">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H35">
-        <v>0.0604011</v>
-      </c>
-      <c r="I35">
-        <v>0.107923</v>
+        <v>0.003947768012929398</v>
+      </c>
+      <c r="I35" t="s">
+        <v>72</v>
       </c>
       <c r="J35">
-        <v>0.003947768012929398</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L35">
-        <v>33</v>
-      </c>
-      <c r="M35" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M35">
+        <v>-3.137569215438217e-08</v>
       </c>
       <c r="N35">
-        <v>3.152028076544658e-07</v>
+        <v>2.962406569898773e-08</v>
       </c>
       <c r="O35">
-        <v>-0</v>
+        <v>-3.137569215438217e-08</v>
       </c>
       <c r="P35" t="s">
         <v>74</v>
@@ -8234,49 +8234,49 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>14.56932696067921</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B36">
-        <v>1.27961622175412</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E36">
-        <v>25.1189</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F36">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G36">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H36">
-        <v>0.0604011</v>
-      </c>
-      <c r="I36">
-        <v>0.107923</v>
+        <v>0.009916354074346441</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
       </c>
       <c r="J36">
-        <v>0.009916354074346441</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L36">
-        <v>34</v>
-      </c>
-      <c r="M36" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M36">
+        <v>-8.475245070530339e-08</v>
       </c>
       <c r="N36">
-        <v>8.487925200206167e-07</v>
+        <v>4.572577476453967e-08</v>
       </c>
       <c r="O36">
-        <v>-0</v>
+        <v>-8.475245070530339e-08</v>
       </c>
       <c r="P36" t="s">
         <v>74</v>
@@ -8452,49 +8452,49 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>36.59648471856541</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B37">
-        <v>3.214249747530543</v>
+        <v>25.1189</v>
       </c>
       <c r="C37">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D37">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E37">
-        <v>63.0957</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F37">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G37">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H37">
-        <v>0.0604011</v>
-      </c>
-      <c r="I37">
-        <v>0.107923</v>
+        <v>0.02490874844974892</v>
+      </c>
+      <c r="I37" t="s">
+        <v>72</v>
       </c>
       <c r="J37">
-        <v>0.02490874844974892</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L37">
-        <v>35</v>
-      </c>
-      <c r="M37" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M37">
+        <v>-2.330459295915958e-07</v>
       </c>
       <c r="N37">
-        <v>2.331584381171116e-06</v>
+        <v>7.161514101741118e-08</v>
       </c>
       <c r="O37">
-        <v>-0</v>
+        <v>-2.330459295915958e-07</v>
       </c>
       <c r="P37" t="s">
         <v>74</v>
@@ -8670,49 +8670,49 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>91.92605552470052</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B38">
-        <v>8.073816461717527</v>
+        <v>63.0957</v>
       </c>
       <c r="C38">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D38">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E38">
-        <v>158.489</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F38">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G38">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H38">
-        <v>0.0604011</v>
-      </c>
-      <c r="I38">
-        <v>0.107923</v>
+        <v>0.06256783979803447</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
       </c>
       <c r="J38">
-        <v>0.06256783979803447</v>
+        <v>36</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L38">
-        <v>36</v>
-      </c>
-      <c r="M38" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M38">
+        <v>-6.745111510331987e-07</v>
       </c>
       <c r="N38">
-        <v>6.746089385238771e-06</v>
+        <v>1.138493761697374e-07</v>
       </c>
       <c r="O38">
-        <v>-0</v>
+        <v>-6.745111510331987e-07</v>
       </c>
       <c r="P38" t="s">
         <v>74</v>
@@ -8888,49 +8888,49 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>230.9078251466858</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B39">
-        <v>20.28051121270797</v>
+        <v>158.489</v>
       </c>
       <c r="C39">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D39">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E39">
-        <v>398.107</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F39">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G39">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H39">
-        <v>0.0604011</v>
-      </c>
-      <c r="I39">
-        <v>0.107923</v>
+        <v>0.1571633170750852</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
       </c>
       <c r="J39">
-        <v>0.1571633170750852</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L39">
-        <v>37</v>
-      </c>
-      <c r="M39" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M39">
+        <v>-2.206724037713457e-06</v>
       </c>
       <c r="N39">
-        <v>2.206804262649129e-05</v>
+        <v>1.869017835112793e-07</v>
       </c>
       <c r="O39">
-        <v>-0</v>
+        <v>-2.206724037713457e-06</v>
       </c>
       <c r="P39" t="s">
         <v>74</v>
@@ -9106,49 +9106,49 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>580.0148170795322</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B40">
-        <v>50.94239224610811</v>
+        <v>398.107</v>
       </c>
       <c r="C40">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D40">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F40">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G40">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H40">
-        <v>0.0604011</v>
-      </c>
-      <c r="I40">
-        <v>0.107923</v>
+        <v>0.3947768012929397</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
       </c>
       <c r="J40">
-        <v>0.3947768012929397</v>
+        <v>38</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L40">
-        <v>38</v>
-      </c>
-      <c r="M40" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M40">
+        <v>-9.035659887404542e-06</v>
       </c>
       <c r="N40">
-        <v>9.035735106201331e-05</v>
+        <v>3.67553495281975e-07</v>
       </c>
       <c r="O40">
-        <v>-0</v>
+        <v>-9.035659887404542e-06</v>
       </c>
       <c r="P40" t="s">
         <v>74</v>
@@ -9324,49 +9324,49 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>5.399347183347833</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B41">
-        <v>0.910224909908572</v>
+        <v>3.98107</v>
       </c>
       <c r="C41">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F41">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G41">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H41">
-        <v>0.107923</v>
-      </c>
-      <c r="I41">
-        <v>0.192834</v>
+        <v>0.002209440155087479</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
       </c>
       <c r="J41">
-        <v>0.002209440155087479</v>
+        <v>39</v>
       </c>
       <c r="K41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L41">
-        <v>39</v>
-      </c>
-      <c r="M41" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M41">
+        <v>-4.682965726804564e-08</v>
       </c>
       <c r="N41">
-        <v>4.688597214683028e-07</v>
+        <v>2.314774257395621e-08</v>
       </c>
       <c r="O41">
-        <v>-0</v>
+        <v>-4.682965726804564e-08</v>
       </c>
       <c r="P41" t="s">
         <v>74</v>
@@ -9542,49 +9542,49 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>13.56255946779206</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B42">
-        <v>2.286383714641267</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E42">
-        <v>25.1189</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F42">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G42">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H42">
-        <v>0.107923</v>
-      </c>
-      <c r="I42">
-        <v>0.192834</v>
+        <v>0.005549867877790668</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
       </c>
       <c r="J42">
-        <v>0.005549867877790668</v>
+        <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L42">
-        <v>40</v>
-      </c>
-      <c r="M42" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M42">
+        <v>-1.268332779059134e-07</v>
       </c>
       <c r="N42">
-        <v>1.268608749107055e-06</v>
+        <v>2.685572019670275e-08</v>
       </c>
       <c r="O42">
-        <v>-0</v>
+        <v>-1.268332779059134e-07</v>
       </c>
       <c r="P42" t="s">
         <v>74</v>
@@ -9760,49 +9760,49 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>34.06759980383801</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B43">
-        <v>5.743134662257945</v>
+        <v>25.1189</v>
       </c>
       <c r="C43">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D43">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E43">
-        <v>63.0957</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F43">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G43">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H43">
-        <v>0.107923</v>
-      </c>
-      <c r="I43">
-        <v>0.192834</v>
+        <v>0.01394063401334736</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
       </c>
       <c r="J43">
-        <v>0.01394063401334736</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L43">
-        <v>41</v>
-      </c>
-      <c r="M43" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M43">
+        <v>-3.465749552469248e-07</v>
       </c>
       <c r="N43">
-        <v>3.466004167553752e-06</v>
+        <v>4.272418619090626e-08</v>
       </c>
       <c r="O43">
-        <v>-0</v>
+        <v>-3.465749552469248e-07</v>
       </c>
       <c r="P43" t="s">
         <v>74</v>
@@ -9978,49 +9978,49 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>85.57379473040416</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B44">
-        <v>14.42607725601388</v>
+        <v>63.0957</v>
       </c>
       <c r="C44">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D44">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E44">
-        <v>158.489</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F44">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G44">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H44">
-        <v>0.107923</v>
-      </c>
-      <c r="I44">
-        <v>0.192834</v>
+        <v>0.03501722928351062</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
       </c>
       <c r="J44">
-        <v>0.03501722928351062</v>
+        <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L44">
-        <v>42</v>
-      </c>
-      <c r="M44" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M44">
+        <v>-9.787292023669612e-07</v>
       </c>
       <c r="N44">
-        <v>9.787522907505371e-06</v>
+        <v>6.848123192624478e-08</v>
       </c>
       <c r="O44">
-        <v>-0</v>
+        <v>-9.787292023669612e-07</v>
       </c>
       <c r="P44" t="s">
         <v>74</v>
@@ -10196,49 +10196,49 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>214.9516665102326</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B45">
-        <v>36.2366698491612</v>
+        <v>158.489</v>
       </c>
       <c r="C45">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D45">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E45">
-        <v>398.107</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F45">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G45">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H45">
-        <v>0.107923</v>
-      </c>
-      <c r="I45">
-        <v>0.192834</v>
+        <v>0.08795930827626598</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
       </c>
       <c r="J45">
-        <v>0.08795930827626598</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L45">
-        <v>43</v>
-      </c>
-      <c r="M45" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M45">
+        <v>-3.006049035399159e-06</v>
       </c>
       <c r="N45">
-        <v>3.006069012721386e-05</v>
+        <v>1.117744976522674e-07</v>
       </c>
       <c r="O45">
-        <v>-0</v>
+        <v>-3.006049035399159e-06</v>
       </c>
       <c r="P45" t="s">
         <v>74</v>
@@ -10414,49 +10414,49 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>539.934718334783</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B46">
-        <v>91.02249099085718</v>
+        <v>398.107</v>
       </c>
       <c r="C46">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D46">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F46">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G46">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H46">
-        <v>0.107923</v>
-      </c>
-      <c r="I46">
-        <v>0.192834</v>
+        <v>0.2209440155087479</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
       </c>
       <c r="J46">
-        <v>0.2209440155087479</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L46">
-        <v>44</v>
-      </c>
-      <c r="M46" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M46">
+        <v>-1.091414843502507e-05</v>
       </c>
       <c r="N46">
-        <v>0.0001091416441723491</v>
+        <v>1.907167521319781e-07</v>
       </c>
       <c r="O46">
-        <v>-0</v>
+        <v>-1.091414843502507e-05</v>
       </c>
       <c r="P46" t="s">
         <v>74</v>
@@ -10632,49 +10632,49 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>11.7636909983059</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B47">
-        <v>4.085252184127429</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E47">
-        <v>25.1189</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F47">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G47">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H47">
-        <v>0.192834</v>
-      </c>
-      <c r="I47">
-        <v>0.344551</v>
+        <v>0.003106081818765749</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
       </c>
       <c r="J47">
-        <v>0.003106081818765749</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L47">
-        <v>45</v>
-      </c>
-      <c r="M47" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M47">
+        <v>-1.778598584338586e-07</v>
       </c>
       <c r="N47">
-        <v>1.778730269140645e-06</v>
+        <v>2.244576521113178e-08</v>
       </c>
       <c r="O47">
-        <v>-0</v>
+        <v>-1.778598584338586e-07</v>
       </c>
       <c r="P47" t="s">
         <v>74</v>
@@ -10850,49 +10850,49 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>29.54904773674991</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B48">
-        <v>10.26168672934605</v>
+        <v>25.1189</v>
       </c>
       <c r="C48">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D48">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E48">
-        <v>63.0957</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F48">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G48">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H48">
-        <v>0.192834</v>
-      </c>
-      <c r="I48">
-        <v>0.344551</v>
+        <v>0.007802122645875148</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
       </c>
       <c r="J48">
-        <v>0.007802122645875148</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L48">
-        <v>46</v>
-      </c>
-      <c r="M48" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M48">
+        <v>-4.817809188649528e-07</v>
       </c>
       <c r="N48">
-        <v>4.817880512201221e-06</v>
+        <v>2.72916965925756e-08</v>
       </c>
       <c r="O48">
-        <v>-0</v>
+        <v>-4.817809188649528e-07</v>
       </c>
       <c r="P48" t="s">
         <v>74</v>
@@ -11068,49 +11068,49 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>74.22372459649121</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B49">
-        <v>25.77614738992684</v>
+        <v>63.0957</v>
       </c>
       <c r="C49">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D49">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E49">
-        <v>158.489</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F49">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G49">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H49">
-        <v>0.192834</v>
-      </c>
-      <c r="I49">
-        <v>0.344551</v>
+        <v>0.01959801235202782</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
       </c>
       <c r="J49">
-        <v>0.01959801235202782</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L49">
-        <v>47</v>
-      </c>
-      <c r="M49" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M49">
+        <v>-1.335852427306588e-06</v>
       </c>
       <c r="N49">
-        <v>1.335859271011978e-05</v>
+        <v>4.451490306626668e-08</v>
       </c>
       <c r="O49">
-        <v>-0</v>
+        <v>-1.335852427306588e-06</v>
       </c>
       <c r="P49" t="s">
         <v>74</v>
@@ -11286,49 +11286,49 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>186.4415776684463</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B50">
-        <v>64.74675869094753</v>
+        <v>158.489</v>
       </c>
       <c r="C50">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D50">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E50">
-        <v>398.107</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F50">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G50">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H50">
-        <v>0.192834</v>
-      </c>
-      <c r="I50">
-        <v>0.344551</v>
+        <v>0.04922798420507309</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
       </c>
       <c r="J50">
-        <v>0.04922798420507309</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L50">
-        <v>48</v>
-      </c>
-      <c r="M50" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M50">
+        <v>-3.929445074282992e-06</v>
       </c>
       <c r="N50">
-        <v>3.929451340090927e-05</v>
+        <v>7.307326134762858e-08</v>
       </c>
       <c r="O50">
-        <v>-0</v>
+        <v>-3.929445074282992e-06</v>
       </c>
       <c r="P50" t="s">
         <v>74</v>
@@ -11504,49 +11504,49 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>468.3205408854692</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B51">
-        <v>162.6366684401711</v>
+        <v>398.107</v>
       </c>
       <c r="C51">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D51">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E51">
-        <v>1000</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F51">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G51">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H51">
-        <v>0.192834</v>
-      </c>
-      <c r="I51">
-        <v>0.344551</v>
+        <v>0.1236552301151383</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
       </c>
       <c r="J51">
-        <v>0.1236552301151383</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L51">
-        <v>49</v>
-      </c>
-      <c r="M51" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M51">
+        <v>-1.306317042520304e-05</v>
       </c>
       <c r="N51">
-        <v>0.0001306317574935581</v>
+        <v>1.228767887035183e-07</v>
       </c>
       <c r="O51">
-        <v>-0</v>
+        <v>-1.306317042520304e-05</v>
       </c>
       <c r="P51" t="s">
         <v>74</v>
@@ -11722,49 +11722,49 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>1176.369099830589</v>
+        <v>1584.894318243332</v>
       </c>
       <c r="B52">
-        <v>408.5252184127426</v>
+        <v>1000</v>
       </c>
       <c r="C52">
-        <v>1584.894318243332</v>
+        <v>2511.89</v>
       </c>
       <c r="D52">
-        <v>1000</v>
+        <v>140.7</v>
       </c>
       <c r="E52">
-        <v>2511.89</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F52">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G52">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H52">
-        <v>0.192834</v>
-      </c>
-      <c r="I52">
-        <v>0.344551</v>
+        <v>0.3106081818765747</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
       </c>
       <c r="J52">
-        <v>0.3106081818765747</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L52">
-        <v>50</v>
-      </c>
-      <c r="M52" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M52">
+        <v>-5.363539315121611e-05</v>
       </c>
       <c r="N52">
-        <v>0.0005363539783056656</v>
+        <v>2.332463461533014e-07</v>
       </c>
       <c r="O52">
-        <v>-0</v>
+        <v>-5.363539315121611e-05</v>
       </c>
       <c r="P52" t="s">
         <v>74</v>
@@ -11940,49 +11940,49 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>21.47541005445389</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B53">
-        <v>18.33532441164207</v>
+        <v>25.1189</v>
       </c>
       <c r="C53">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D53">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E53">
-        <v>63.0957</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F53">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G53">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H53">
-        <v>0.344551</v>
-      </c>
-      <c r="I53">
-        <v>0.615635</v>
+        <v>0.004366595137257079</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
       </c>
       <c r="J53">
-        <v>0.004366595137257079</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L53">
-        <v>51</v>
-      </c>
-      <c r="M53" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M53">
+        <v>-6.848368527504518e-07</v>
       </c>
       <c r="N53">
-        <v>6.848447433748252e-06</v>
+        <v>3.448063106246108e-08</v>
       </c>
       <c r="O53">
-        <v>-0</v>
+        <v>-6.848368527504518e-07</v>
       </c>
       <c r="P53" t="s">
         <v>74</v>
@@ -12158,49 +12158,49 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>53.94369847986937</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B54">
-        <v>46.05617350654868</v>
+        <v>63.0957</v>
       </c>
       <c r="C54">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D54">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E54">
-        <v>158.489</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F54">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G54">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H54">
-        <v>0.344551</v>
-      </c>
-      <c r="I54">
-        <v>0.615635</v>
+        <v>0.0109683722392536</v>
+      </c>
+      <c r="I54" t="s">
+        <v>72</v>
       </c>
       <c r="J54">
-        <v>0.0109683722392536</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L54">
-        <v>52</v>
-      </c>
-      <c r="M54" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M54">
+        <v>-1.88786762194284e-06</v>
       </c>
       <c r="N54">
-        <v>1.8878754989114e-05</v>
+        <v>5.716251292198546e-08</v>
       </c>
       <c r="O54">
-        <v>-0</v>
+        <v>-1.88786762194284e-06</v>
       </c>
       <c r="P54" t="s">
         <v>74</v>
@@ -12376,49 +12376,49 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>135.5004522412939</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B55">
-        <v>115.6878841180999</v>
+        <v>158.489</v>
       </c>
       <c r="C55">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D55">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E55">
-        <v>398.107</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F55">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G55">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H55">
-        <v>0.344551</v>
-      </c>
-      <c r="I55">
-        <v>0.615635</v>
+        <v>0.02755130702290171</v>
+      </c>
+      <c r="I55" t="s">
+        <v>72</v>
       </c>
       <c r="J55">
-        <v>0.02755130702290171</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L55">
-        <v>53</v>
-      </c>
-      <c r="M55" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M55">
+        <v>-5.396080143577997e-06</v>
       </c>
       <c r="N55">
-        <v>5.396087694709843e-05</v>
+        <v>9.464065081435088e-08</v>
       </c>
       <c r="O55">
-        <v>-0</v>
+        <v>-5.396080143577997e-06</v>
       </c>
       <c r="P55" t="s">
         <v>74</v>
@@ -12594,49 +12594,49 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>340.362090245325</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B56">
-        <v>290.5951190803154</v>
+        <v>398.107</v>
       </c>
       <c r="C56">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D56">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E56">
-        <v>1000</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F56">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G56">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H56">
-        <v>0.344551</v>
-      </c>
-      <c r="I56">
-        <v>0.615635</v>
+        <v>0.06920582398209697</v>
+      </c>
+      <c r="I56" t="s">
+        <v>72</v>
       </c>
       <c r="J56">
-        <v>0.06920582398209697</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L56">
-        <v>54</v>
-      </c>
-      <c r="M56" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M56">
+        <v>-1.670867109649128e-05</v>
       </c>
       <c r="N56">
-        <v>0.000167086779844998</v>
+        <v>1.590708935330461e-07</v>
       </c>
       <c r="O56">
-        <v>-0</v>
+        <v>-1.670867109649128e-05</v>
       </c>
       <c r="P56" t="s">
         <v>74</v>
@@ -12812,49 +12812,49 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>854.951706712068</v>
+        <v>1584.894318243332</v>
       </c>
       <c r="B57">
-        <v>729.942611531264</v>
+        <v>1000</v>
       </c>
       <c r="C57">
-        <v>1584.894318243332</v>
+        <v>2511.89</v>
       </c>
       <c r="D57">
-        <v>1000</v>
+        <v>140.7</v>
       </c>
       <c r="E57">
-        <v>2511.89</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F57">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G57">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H57">
-        <v>0.344551</v>
-      </c>
-      <c r="I57">
-        <v>0.615635</v>
+        <v>0.1738373309591034</v>
+      </c>
+      <c r="I57" t="s">
+        <v>72</v>
       </c>
       <c r="J57">
-        <v>0.1738373309591034</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L57">
-        <v>55</v>
-      </c>
-      <c r="M57" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M57">
+        <v>-6.034849237486569e-05</v>
       </c>
       <c r="N57">
-        <v>0.0006034849839265232</v>
+        <v>2.826350266022881e-07</v>
       </c>
       <c r="O57">
-        <v>-0</v>
+        <v>-6.034849237486569e-05</v>
       </c>
       <c r="P57" t="s">
         <v>74</v>
@@ -13030,49 +13030,49 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>2147.541005445388</v>
+        <v>3981.073446609594</v>
       </c>
       <c r="B58">
-        <v>1833.532441164207</v>
+        <v>2511.89</v>
       </c>
       <c r="C58">
-        <v>3981.073446609594</v>
+        <v>6309.57</v>
       </c>
       <c r="D58">
-        <v>2511.89</v>
+        <v>140.7</v>
       </c>
       <c r="E58">
-        <v>6309.57</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F58">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G58">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H58">
-        <v>0.344551</v>
-      </c>
-      <c r="I58">
-        <v>0.615635</v>
+        <v>0.4366595137257078</v>
+      </c>
+      <c r="I58" t="s">
+        <v>72</v>
       </c>
       <c r="J58">
-        <v>0.4366595137257078</v>
+        <v>56</v>
       </c>
       <c r="K58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L58">
-        <v>56</v>
-      </c>
-      <c r="M58" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M58">
+        <v>-0.0002744936649945369</v>
       </c>
       <c r="N58">
-        <v>0.002744936749453476</v>
+        <v>7.767581446244053e-07</v>
       </c>
       <c r="O58">
-        <v>-0</v>
+        <v>-0.0002744936649945369</v>
       </c>
       <c r="P58" t="s">
         <v>74</v>

--- a/pidis/expdata/90001.xlsx
+++ b/pidis/expdata/90001.xlsx
@@ -2994,7 +2994,7 @@
         <v>429</v>
       </c>
       <c r="M2">
-        <v>6.74080514291588e-06</v>
+        <v>1.337825263237097e-06</v>
       </c>
       <c r="N2">
         <v>6.710963735621522e-10</v>
@@ -4280,7 +4280,7 @@
         <v>429</v>
       </c>
       <c r="M3">
-        <v>1.674953039272984e-06</v>
+        <v>6.741162951745911e-07</v>
       </c>
       <c r="N3">
         <v>2.224277269425077e-10</v>
@@ -5566,7 +5566,7 @@
         <v>429</v>
       </c>
       <c r="M4">
-        <v>2.566531349168823e-06</v>
+        <v>5.199780258383248e-07</v>
       </c>
       <c r="N4">
         <v>2.536965595194109e-09</v>
@@ -6852,7 +6852,7 @@
         <v>429</v>
       </c>
       <c r="M5">
-        <v>9.397331919211358e-07</v>
+        <v>-3.513796783900279e-07</v>
       </c>
       <c r="N5">
         <v>-2.141580271710578e-10</v>
@@ -8138,7 +8138,7 @@
         <v>429</v>
       </c>
       <c r="M6">
-        <v>9.668017090423721e-07</v>
+        <v>3.073943617469977e-07</v>
       </c>
       <c r="N6">
         <v>8.656418439663002e-10</v>
@@ -9424,7 +9424,7 @@
         <v>429</v>
       </c>
       <c r="M7">
-        <v>5.363755519584474e-07</v>
+        <v>-1.954307042459927e-07</v>
       </c>
       <c r="N7">
         <v>-7.255707059354851e-10</v>
@@ -10710,7 +10710,7 @@
         <v>429</v>
       </c>
       <c r="M8">
-        <v>5.44092341273478e-07</v>
+        <v>-1.605754567348632e-07</v>
       </c>
       <c r="N8">
         <v>-7.376649624840758e-10</v>
@@ -11996,7 +11996,7 @@
         <v>429</v>
       </c>
       <c r="M9">
-        <v>9.212181257299913e-07</v>
+        <v>4.116361912670044e-07</v>
       </c>
       <c r="N9">
         <v>3.318713035362217e-09</v>
@@ -13282,7 +13282,7 @@
         <v>429</v>
       </c>
       <c r="M10">
-        <v>3.088725384716111e-07</v>
+        <v>-1.185266401948721e-07</v>
       </c>
       <c r="N10">
         <v>-1.408508942424865e-09</v>
@@ -14568,7 +14568,7 @@
         <v>429</v>
       </c>
       <c r="M11">
-        <v>3.129496610421515e-07</v>
+        <v>-6.093625896287319e-08</v>
       </c>
       <c r="N11">
         <v>-2.639331443695591e-09</v>
@@ -15854,7 +15854,7 @@
         <v>429</v>
       </c>
       <c r="M12">
-        <v>4.655894149678403e-07</v>
+        <v>-2.050168412796196e-07</v>
       </c>
       <c r="N12">
         <v>-3.383307222216452e-09</v>
@@ -17140,7 +17140,7 @@
         <v>429</v>
       </c>
       <c r="M13">
-        <v>9.541394188615131e-07</v>
+        <v>4.021478688188227e-07</v>
       </c>
       <c r="N13">
         <v>6.704190436616107e-09</v>
@@ -18426,7 +18426,7 @@
         <v>429</v>
       </c>
       <c r="M14">
-        <v>1.786267703082396e-07</v>
+        <v>-7.919252239353946e-08</v>
       </c>
       <c r="N14">
         <v>-2.397562843694182e-09</v>
@@ -19712,7 +19712,7 @@
         <v>429</v>
       </c>
       <c r="M15">
-        <v>1.819478270188281e-07</v>
+        <v>-4.582862667625076e-08</v>
       </c>
       <c r="N15">
         <v>-5.261084723040375e-09</v>
@@ -20998,7 +20998,7 @@
         <v>429</v>
       </c>
       <c r="M16">
-        <v>2.683072267705346e-07</v>
+        <v>-8.232430252021148e-08</v>
       </c>
       <c r="N16">
         <v>-1.133317379143452e-08</v>
@@ -22284,7 +22284,7 @@
         <v>429</v>
       </c>
       <c r="M17">
-        <v>4.282247192807278e-07</v>
+        <v>-1.81105524976084e-07</v>
       </c>
       <c r="N17">
         <v>-2.24433662428417e-08</v>
@@ -23570,7 +23570,7 @@
         <v>429</v>
       </c>
       <c r="M18">
-        <v>1.034365716682377e-07</v>
+        <v>-5.583641907303812e-08</v>
       </c>
       <c r="N18">
         <v>-3.89362577239898e-09</v>
@@ -24856,7 +24856,7 @@
         <v>429</v>
       </c>
       <c r="M19">
-        <v>1.062906949801856e-07</v>
+        <v>-5.165598352023476e-08</v>
       </c>
       <c r="N19">
         <v>-9.20230338920657e-09</v>
@@ -26142,7 +26142,7 @@
         <v>429</v>
       </c>
       <c r="M20">
-        <v>1.570649526624698e-07</v>
+        <v>-4.230525007920332e-08</v>
       </c>
       <c r="N20">
         <v>-2.251598581441813e-08</v>
@@ -27428,7 +27428,7 @@
         <v>429</v>
       </c>
       <c r="M21">
-        <v>2.420124452583606e-07</v>
+        <v>-3.494123570479101e-08</v>
       </c>
       <c r="N21">
         <v>-5.759708887074829e-08</v>
@@ -28714,7 +28714,7 @@
         <v>429</v>
       </c>
       <c r="M22">
-        <v>4.420031433413318e-07</v>
+        <v>-1.076659288462889e-07</v>
       </c>
       <c r="N22">
         <v>-1.618546834169594e-07</v>
@@ -30000,7 +30000,7 @@
         <v>429</v>
       </c>
       <c r="M23">
-        <v>5.961049708744204e-08</v>
+        <v>-3.875007297750942e-08</v>
       </c>
       <c r="N23">
         <v>-6.166815464311294e-09</v>
@@ -31286,7 +31286,7 @@
         <v>429</v>
       </c>
       <c r="M24">
-        <v>6.19709917177942e-08</v>
+        <v>-4.29536845879382e-08</v>
       </c>
       <c r="N24">
         <v>-1.534429158521574e-08</v>
@@ -32572,7 +32572,7 @@
         <v>429</v>
       </c>
       <c r="M25">
-        <v>9.246704990738597e-08</v>
+        <v>-5.186191936645339e-08</v>
       </c>
       <c r="N25">
         <v>-3.971585335476393e-08</v>
@@ -33858,7 +33858,7 @@
         <v>429</v>
       </c>
       <c r="M26">
-        <v>1.421435272680013e-07</v>
+        <v>-6.725329184879333e-08</v>
       </c>
       <c r="N26">
         <v>-1.082041502869241e-07</v>
@@ -35144,7 +35144,7 @@
         <v>429</v>
       </c>
       <c r="M27">
-        <v>2.284597933404514e-07</v>
+        <v>-9.426910728127006e-08</v>
       </c>
       <c r="N27">
         <v>-3.297839098497598e-07</v>
@@ -36430,7 +36430,7 @@
         <v>429</v>
       </c>
       <c r="M28">
-        <v>3.388803258956079e-08</v>
+        <v>-2.475317456343723e-08</v>
       </c>
       <c r="N28">
         <v>-9.504333028701161e-09</v>
@@ -37716,7 +37716,7 @@
         <v>429</v>
       </c>
       <c r="M29">
-        <v>3.580653988035616e-08</v>
+        <v>-3.084078111293305e-08</v>
       </c>
       <c r="N29">
         <v>-2.489404416846971e-08</v>
@@ -39002,7 +39002,7 @@
         <v>429</v>
       </c>
       <c r="M30">
-        <v>5.428707274894859e-08</v>
+        <v>-4.198758640159444e-08</v>
       </c>
       <c r="N30">
         <v>-6.684448557778019e-08</v>
@@ -40288,7 +40288,7 @@
         <v>429</v>
       </c>
       <c r="M31">
-        <v>8.406159889750294e-08</v>
+        <v>-6.086187744200552e-08</v>
       </c>
       <c r="N31">
         <v>-1.863046818928528e-07</v>
@@ -41574,7 +41574,7 @@
         <v>429</v>
       </c>
       <c r="M32">
-        <v>1.335958672491739e-07</v>
+        <v>-9.247012845532482e-08</v>
       </c>
       <c r="N32">
         <v>-5.667064030962385e-07</v>
@@ -42860,7 +42860,7 @@
         <v>429</v>
       </c>
       <c r="M33">
-        <v>2.277375014001805e-07</v>
+        <v>-1.516061380540966e-07</v>
       </c>
       <c r="N33">
         <v>-2.090787645314963e-06</v>
@@ -44146,7 +44146,7 @@
         <v>429</v>
       </c>
       <c r="M34">
-        <v>2.13043960197698e-08</v>
+        <v>-1.425657898002988e-08</v>
       </c>
       <c r="N34">
         <v>-1.439802933811684e-08</v>
@@ -45432,7 +45432,7 @@
         <v>429</v>
       </c>
       <c r="M35">
-        <v>2.046967418905541e-08</v>
+        <v>-1.978545327945133e-08</v>
       </c>
       <c r="N35">
         <v>-3.964259861587194e-08</v>
@@ -46718,7 +46718,7 @@
         <v>429</v>
       </c>
       <c r="M36">
-        <v>3.165854091766029e-08</v>
+        <v>-2.912926923904148e-08</v>
       </c>
       <c r="N36">
         <v>-1.091274255698591e-07</v>
@@ -48004,7 +48004,7 @@
         <v>429</v>
       </c>
       <c r="M37">
-        <v>4.964810761340544e-08</v>
+        <v>-4.453955524379601e-08</v>
       </c>
       <c r="N37">
         <v>-3.059151211477379e-07</v>
@@ -49290,7 +49290,7 @@
         <v>429</v>
       </c>
       <c r="M38">
-        <v>7.90007243124954e-08</v>
+        <v>-6.97684915394819e-08</v>
       </c>
       <c r="N38">
         <v>-9.086282013790722e-07</v>
@@ -50576,7 +50576,7 @@
         <v>429</v>
       </c>
       <c r="M39">
-        <v>1.297683276084165e-07</v>
+        <v>-1.13801097506411e-07</v>
       </c>
       <c r="N39">
         <v>-3.092147149618219e-06</v>
@@ -51862,7 +51862,7 @@
         <v>429</v>
       </c>
       <c r="M40">
-        <v>2.551587515722538e-07</v>
+        <v>-1.981815939805207e-07</v>
       </c>
       <c r="N40">
         <v>-1.333860745011789e-05</v>
@@ -53148,7 +53148,7 @@
         <v>429</v>
       </c>
       <c r="M41">
-        <v>1.60358291735094e-08</v>
+        <v>-1.213330862227145e-08</v>
       </c>
       <c r="N41">
         <v>-6.276514009820193e-08</v>
@@ -54434,7 +54434,7 @@
         <v>429</v>
       </c>
       <c r="M42">
-        <v>1.862805537730293e-08</v>
+        <v>-1.88527692181277e-08</v>
       </c>
       <c r="N42">
         <v>-1.7333408252077e-07</v>
@@ -55720,7 +55720,7 @@
         <v>429</v>
       </c>
       <c r="M43">
-        <v>2.964962560255219e-08</v>
+        <v>-2.988606669013137e-08</v>
       </c>
       <c r="N43">
         <v>-4.814940334796815e-07</v>
@@ -57006,7 +57006,7 @@
         <v>429</v>
       </c>
       <c r="M44">
-        <v>4.754040094626039e-08</v>
+        <v>-4.7913284420636e-08</v>
       </c>
       <c r="N44">
         <v>-1.384583462573723e-06</v>
@@ -58292,7 +58292,7 @@
         <v>429</v>
       </c>
       <c r="M45">
-        <v>7.761241139035664e-08</v>
+        <v>-7.844165356609804e-08</v>
       </c>
       <c r="N45">
         <v>-4.355330963333352e-06</v>
@@ -59578,7 +59578,7 @@
         <v>429</v>
       </c>
       <c r="M46">
-        <v>1.324302779073824e-07</v>
+        <v>-1.332732009884105e-07</v>
       </c>
       <c r="N46">
         <v>-1.632804533325114e-05</v>
@@ -60864,7 +60864,7 @@
         <v>429</v>
       </c>
       <c r="M47">
-        <v>1.558108466610961e-08</v>
+        <v>-1.269372811798859e-08</v>
       </c>
       <c r="N47">
         <v>-2.661148442022481e-07</v>
@@ -62150,7 +62150,7 @@
         <v>429</v>
       </c>
       <c r="M48">
-        <v>1.894772229748868e-08</v>
+        <v>-2.094857923046108e-08</v>
       </c>
       <c r="N48">
         <v>-7.296401452728157e-07</v>
@@ -63436,7 +63436,7 @@
         <v>429</v>
       </c>
       <c r="M49">
-        <v>3.091037022913948e-08</v>
+        <v>-3.469626970706761e-08</v>
       </c>
       <c r="N49">
         <v>-2.042262269665849e-06</v>
@@ -64722,7 +64722,7 @@
         <v>429</v>
       </c>
       <c r="M50">
-        <v>5.074874902298179e-08</v>
+        <v>-5.797502143112646e-08</v>
       </c>
       <c r="N50">
         <v>-6.047204542847331e-06</v>
@@ -66008,7 +66008,7 @@
         <v>429</v>
       </c>
       <c r="M51">
-        <v>8.534844627487496e-08</v>
+        <v>-9.866678674607529e-08</v>
       </c>
       <c r="N51">
         <v>-2.017065532632912e-05</v>
@@ -67294,7 +67294,7 @@
         <v>429</v>
       </c>
       <c r="M52">
-        <v>1.619871691981712e-07</v>
+        <v>-1.734854800876422e-07</v>
       </c>
       <c r="N52">
         <v>-8.284367792990761e-05</v>
@@ -68580,7 +68580,7 @@
         <v>429</v>
       </c>
       <c r="M53">
-        <v>2.393879189944031e-08</v>
+        <v>-2.196081730237319e-08</v>
       </c>
       <c r="N53">
         <v>-1.187078817132618e-06</v>
@@ -69866,7 +69866,7 @@
         <v>429</v>
       </c>
       <c r="M54">
-        <v>3.969519934440129e-08</v>
+        <v>-3.938304509355819e-08</v>
       </c>
       <c r="N54">
         <v>-3.300609237404382e-06</v>
@@ -71152,7 +71152,7 @@
         <v>429</v>
       </c>
       <c r="M55">
-        <v>6.573507837011212e-08</v>
+        <v>-7.008947713636366e-08</v>
       </c>
       <c r="N55">
         <v>-9.435304508913348e-06</v>
@@ -72438,7 +72438,7 @@
         <v>429</v>
       </c>
       <c r="M56">
-        <v>1.105080377605291e-07</v>
+        <v>-1.248046326589235e-07</v>
       </c>
       <c r="N56">
         <v>-2.881503099262886e-05</v>
@@ -73724,7 +73724,7 @@
         <v>429</v>
       </c>
       <c r="M57">
-        <v>1.964072604834787e-07</v>
+        <v>-2.256030157448969e-07</v>
       </c>
       <c r="N57">
         <v>-0.0001007968761851898</v>
@@ -75010,7 +75010,7 @@
         <v>429</v>
       </c>
       <c r="M58">
-        <v>5.390273778620169e-07</v>
+        <v>-4.158629554609538e-07</v>
       </c>
       <c r="N58">
         <v>-0.0004395617955076511</v>

--- a/pidis/expdata/90001.xlsx
+++ b/pidis/expdata/90001.xlsx
@@ -2994,7 +2994,7 @@
         <v>429</v>
       </c>
       <c r="M2">
-        <v>1.337825263237097e-06</v>
+        <v>1.151967495606364e-05</v>
       </c>
       <c r="N2">
         <v>6.710963735621522e-10</v>
@@ -4280,7 +4280,7 @@
         <v>429</v>
       </c>
       <c r="M3">
-        <v>6.741162951745911e-07</v>
+        <v>1.037159131808186e-05</v>
       </c>
       <c r="N3">
         <v>2.224277269425077e-10</v>
@@ -5566,7 +5566,7 @@
         <v>429</v>
       </c>
       <c r="M4">
-        <v>5.199780258383248e-07</v>
+        <v>8.000102676909013e-06</v>
       </c>
       <c r="N4">
         <v>2.536965595194109e-09</v>
@@ -6852,7 +6852,7 @@
         <v>429</v>
       </c>
       <c r="M5">
-        <v>-3.513796783900279e-07</v>
+        <v>-9.659550161827288e-06</v>
       </c>
       <c r="N5">
         <v>-2.141580271710578e-10</v>
@@ -8138,7 +8138,7 @@
         <v>429</v>
       </c>
       <c r="M6">
-        <v>3.073943617469977e-07</v>
+        <v>8.450378436374257e-06</v>
       </c>
       <c r="N6">
         <v>8.656418439663002e-10</v>
@@ -9424,7 +9424,7 @@
         <v>429</v>
       </c>
       <c r="M7">
-        <v>-1.954307042459927e-07</v>
+        <v>-9.599362751888897e-06</v>
       </c>
       <c r="N7">
         <v>-7.255707059354851e-10</v>
@@ -10710,7 +10710,7 @@
         <v>429</v>
       </c>
       <c r="M8">
-        <v>-1.605754567348632e-07</v>
+        <v>-7.887307493424973e-06</v>
       </c>
       <c r="N8">
         <v>-7.376649624840758e-10</v>
@@ -11996,7 +11996,7 @@
         <v>429</v>
       </c>
       <c r="M9">
-        <v>4.116361912670044e-07</v>
+        <v>2.021916226859355e-05</v>
       </c>
       <c r="N9">
         <v>3.318713035362217e-09</v>
@@ -13282,7 +13282,7 @@
         <v>429</v>
       </c>
       <c r="M10">
-        <v>-1.185266401948721e-07</v>
+        <v>-1.040243590444556e-05</v>
       </c>
       <c r="N10">
         <v>-1.408508942424865e-09</v>
@@ -14568,7 +14568,7 @@
         <v>429</v>
       </c>
       <c r="M11">
-        <v>-6.093625896287319e-08</v>
+        <v>-5.348042660466143e-06</v>
       </c>
       <c r="N11">
         <v>-2.639331443695591e-09</v>
@@ -15854,7 +15854,7 @@
         <v>429</v>
       </c>
       <c r="M12">
-        <v>-2.050168412796196e-07</v>
+        <v>-1.799320850935981e-05</v>
       </c>
       <c r="N12">
         <v>-3.383307222216452e-09</v>
@@ -17140,7 +17140,7 @@
         <v>429</v>
       </c>
       <c r="M13">
-        <v>4.021478688188227e-07</v>
+        <v>3.529432221435883e-05</v>
       </c>
       <c r="N13">
         <v>6.704190436616107e-09</v>
@@ -18426,7 +18426,7 @@
         <v>429</v>
       </c>
       <c r="M14">
-        <v>-7.919252239353946e-08</v>
+        <v>-1.241859927945383e-05</v>
       </c>
       <c r="N14">
         <v>-2.397562843694182e-09</v>
@@ -19712,7 +19712,7 @@
         <v>429</v>
       </c>
       <c r="M15">
-        <v>-4.582862667625076e-08</v>
+        <v>-7.186629911388962e-06</v>
       </c>
       <c r="N15">
         <v>-5.261084723040375e-09</v>
@@ -20998,7 +20998,7 @@
         <v>429</v>
       </c>
       <c r="M16">
-        <v>-8.232430252021148e-08</v>
+        <v>-1.290971032383082e-05</v>
       </c>
       <c r="N16">
         <v>-1.133317379143452e-08</v>
@@ -22284,7 +22284,7 @@
         <v>429</v>
       </c>
       <c r="M17">
-        <v>-1.81105524976084e-07</v>
+        <v>-2.840011750947616e-05</v>
       </c>
       <c r="N17">
         <v>-2.24433662428417e-08</v>
@@ -23570,7 +23570,7 @@
         <v>429</v>
       </c>
       <c r="M18">
-        <v>-5.583641907303812e-08</v>
+        <v>-1.564499776123489e-05</v>
       </c>
       <c r="N18">
         <v>-3.89362577239898e-09</v>
@@ -24856,7 +24856,7 @@
         <v>429</v>
       </c>
       <c r="M19">
-        <v>-5.165598352023476e-08</v>
+        <v>-1.447366718753444e-05</v>
       </c>
       <c r="N19">
         <v>-9.20230338920657e-09</v>
@@ -26142,7 +26142,7 @@
         <v>429</v>
       </c>
       <c r="M20">
-        <v>-4.230525007920332e-08</v>
+        <v>-1.18536531143332e-05</v>
       </c>
       <c r="N20">
         <v>-2.251598581441813e-08</v>
@@ -27428,7 +27428,7 @@
         <v>429</v>
       </c>
       <c r="M21">
-        <v>-3.494123570479101e-08</v>
+        <v>-9.790304670333971e-06</v>
       </c>
       <c r="N21">
         <v>-5.759708887074829e-08</v>
@@ -28714,7 +28714,7 @@
         <v>429</v>
       </c>
       <c r="M22">
-        <v>-1.076659288462889e-07</v>
+        <v>-3.016728586608131e-05</v>
       </c>
       <c r="N22">
         <v>-1.618546834169594e-07</v>
@@ -30000,7 +30000,7 @@
         <v>429</v>
       </c>
       <c r="M23">
-        <v>-3.875007297750942e-08</v>
+        <v>-1.939994549937425e-05</v>
       </c>
       <c r="N23">
         <v>-6.166815464311294e-09</v>
@@ -31286,7 +31286,7 @@
         <v>429</v>
       </c>
       <c r="M24">
-        <v>-4.29536845879382e-08</v>
+        <v>-2.150445343652925e-05</v>
       </c>
       <c r="N24">
         <v>-1.534429158521574e-08</v>
@@ -32572,7 +32572,7 @@
         <v>429</v>
       </c>
       <c r="M25">
-        <v>-5.186191936645339e-08</v>
+        <v>-2.596429714533728e-05</v>
       </c>
       <c r="N25">
         <v>-3.971585335476393e-08</v>
@@ -33858,7 +33858,7 @@
         <v>429</v>
       </c>
       <c r="M26">
-        <v>-6.725329184879333e-08</v>
+        <v>-3.366987714504192e-05</v>
       </c>
       <c r="N26">
         <v>-1.082041502869241e-07</v>
@@ -35144,7 +35144,7 @@
         <v>429</v>
       </c>
       <c r="M27">
-        <v>-9.426910728127006e-08</v>
+        <v>-4.719515095077355e-05</v>
       </c>
       <c r="N27">
         <v>-3.297839098497598e-07</v>
@@ -36430,7 +36430,7 @@
         <v>429</v>
       </c>
       <c r="M28">
-        <v>-2.475317456343723e-08</v>
+        <v>-2.214260851210632e-05</v>
       </c>
       <c r="N28">
         <v>-9.504333028701161e-09</v>
@@ -37716,7 +37716,7 @@
         <v>429</v>
       </c>
       <c r="M29">
-        <v>-3.084078111293305e-08</v>
+        <v>-2.758819240535651e-05</v>
       </c>
       <c r="N29">
         <v>-2.489404416846971e-08</v>
@@ -39002,7 +39002,7 @@
         <v>429</v>
       </c>
       <c r="M30">
-        <v>-4.198758640159444e-08</v>
+        <v>-3.755941226092295e-05</v>
       </c>
       <c r="N30">
         <v>-6.684448557778019e-08</v>
@@ -40288,7 +40288,7 @@
         <v>429</v>
       </c>
       <c r="M31">
-        <v>-6.086187744200552e-08</v>
+        <v>-5.444314717110378e-05</v>
       </c>
       <c r="N31">
         <v>-1.863046818928528e-07</v>
@@ -41574,7 +41574,7 @@
         <v>429</v>
       </c>
       <c r="M32">
-        <v>-9.247012845532482e-08</v>
+        <v>-8.271786911640858e-05</v>
       </c>
       <c r="N32">
         <v>-5.667064030962385e-07</v>
@@ -42860,7 +42860,7 @@
         <v>429</v>
       </c>
       <c r="M33">
-        <v>-1.516061380540966e-07</v>
+        <v>-0.0001356171651785513</v>
       </c>
       <c r="N33">
         <v>-2.090787645314963e-06</v>
@@ -44146,7 +44146,7 @@
         <v>429</v>
       </c>
       <c r="M34">
-        <v>-1.425657898002988e-08</v>
+        <v>-2.278677939218987e-05</v>
       </c>
       <c r="N34">
         <v>-1.439802933811684e-08</v>
@@ -45432,7 +45432,7 @@
         <v>429</v>
       </c>
       <c r="M35">
-        <v>-1.978545327945133e-08</v>
+        <v>-3.162376890544916e-05</v>
       </c>
       <c r="N35">
         <v>-3.964259861587194e-08</v>
@@ -46718,7 +46718,7 @@
         <v>429</v>
       </c>
       <c r="M36">
-        <v>-2.912926923904148e-08</v>
+        <v>-4.655831058258397e-05</v>
       </c>
       <c r="N36">
         <v>-1.091274255698591e-07</v>
@@ -48004,7 +48004,7 @@
         <v>429</v>
       </c>
       <c r="M37">
-        <v>-4.453955524379601e-08</v>
+        <v>-7.118909950090548e-05</v>
       </c>
       <c r="N37">
         <v>-3.059151211477379e-07</v>
@@ -49290,7 +49290,7 @@
         <v>429</v>
       </c>
       <c r="M38">
-        <v>-6.97684915394819e-08</v>
+        <v>-0.00011151337410181</v>
       </c>
       <c r="N38">
         <v>-9.086282013790722e-07</v>
@@ -50576,7 +50576,7 @@
         <v>429</v>
       </c>
       <c r="M39">
-        <v>-1.13801097506411e-07</v>
+        <v>-0.0001818921991776645</v>
       </c>
       <c r="N39">
         <v>-3.092147149618219e-06</v>
@@ -51862,7 +51862,7 @@
         <v>429</v>
       </c>
       <c r="M40">
-        <v>-1.981815939805207e-07</v>
+        <v>-0.0003167604421707519</v>
       </c>
       <c r="N40">
         <v>-1.333860745011789e-05</v>
@@ -53148,7 +53148,7 @@
         <v>429</v>
       </c>
       <c r="M41">
-        <v>-1.213330862227145e-08</v>
+        <v>-3.465103800820295e-05</v>
       </c>
       <c r="N41">
         <v>-6.276514009820193e-08</v>
@@ -54434,7 +54434,7 @@
         <v>429</v>
       </c>
       <c r="M42">
-        <v>-1.88527692181277e-08</v>
+        <v>-5.384088075923983e-05</v>
       </c>
       <c r="N42">
         <v>-1.7333408252077e-07</v>
@@ -55720,7 +55720,7 @@
         <v>429</v>
       </c>
       <c r="M43">
-        <v>-2.988606669013137e-08</v>
+        <v>-8.535044026771884e-05</v>
       </c>
       <c r="N43">
         <v>-4.814940334796815e-07</v>
@@ -57006,7 +57006,7 @@
         <v>429</v>
       </c>
       <c r="M44">
-        <v>-4.7913284420636e-08</v>
+        <v>-0.0001368336610625007</v>
       </c>
       <c r="N44">
         <v>-1.384583462573723e-06</v>
@@ -58292,7 +58292,7 @@
         <v>429</v>
       </c>
       <c r="M45">
-        <v>-7.844165356609804e-08</v>
+        <v>-0.0002240184276040406</v>
       </c>
       <c r="N45">
         <v>-4.355330963333352e-06</v>
@@ -59578,7 +59578,7 @@
         <v>429</v>
       </c>
       <c r="M46">
-        <v>-1.332732009884105e-07</v>
+        <v>-0.0003806096833746809</v>
       </c>
       <c r="N46">
         <v>-1.632804533325114e-05</v>
@@ -60864,7 +60864,7 @@
         <v>429</v>
       </c>
       <c r="M47">
-        <v>-1.269372811798859e-08</v>
+        <v>-6.477328892576193e-05</v>
       </c>
       <c r="N47">
         <v>-2.661148442022481e-07</v>
@@ -62150,7 +62150,7 @@
         <v>429</v>
       </c>
       <c r="M48">
-        <v>-2.094857923046108e-08</v>
+        <v>-0.0001068959696045824</v>
       </c>
       <c r="N48">
         <v>-7.296401452728157e-07</v>
@@ -63436,7 +63436,7 @@
         <v>429</v>
       </c>
       <c r="M49">
-        <v>-3.469626970706761e-08</v>
+        <v>-0.0001770473954917911</v>
       </c>
       <c r="N49">
         <v>-2.042262269665849e-06</v>
@@ -64722,7 +64722,7 @@
         <v>429</v>
       </c>
       <c r="M50">
-        <v>-5.797502143112646e-08</v>
+        <v>-0.0002958337202995568</v>
       </c>
       <c r="N50">
         <v>-6.047204542847331e-06</v>
@@ -66008,7 +66008,7 @@
         <v>429</v>
       </c>
       <c r="M51">
-        <v>-9.866678674607529e-08</v>
+        <v>-0.0005034748047099845</v>
       </c>
       <c r="N51">
         <v>-2.017065532632912e-05</v>
@@ -67294,7 +67294,7 @@
         <v>429</v>
       </c>
       <c r="M52">
-        <v>-1.734854800876422e-07</v>
+        <v>-0.000885258059856902</v>
       </c>
       <c r="N52">
         <v>-8.284367792990761e-05</v>
@@ -68580,7 +68580,7 @@
         <v>429</v>
       </c>
       <c r="M53">
-        <v>-2.196081730237319e-08</v>
+        <v>-0.0002002281350644718</v>
       </c>
       <c r="N53">
         <v>-1.187078817132618e-06</v>
@@ -69866,7 +69866,7 @@
         <v>429</v>
       </c>
       <c r="M54">
-        <v>-3.938304509355819e-08</v>
+        <v>-0.0003590756010429095</v>
       </c>
       <c r="N54">
         <v>-3.300609237404382e-06</v>
@@ -71152,7 +71152,7 @@
         <v>429</v>
       </c>
       <c r="M55">
-        <v>-7.008947713636366e-08</v>
+        <v>-0.0006390420311512743</v>
       </c>
       <c r="N55">
         <v>-9.435304508913348e-06</v>
@@ -72438,7 +72438,7 @@
         <v>429</v>
       </c>
       <c r="M56">
-        <v>-1.248046326589235e-07</v>
+        <v>-0.001137908416641059</v>
       </c>
       <c r="N56">
         <v>-2.881503099262886e-05</v>
@@ -73724,7 +73724,7 @@
         <v>429</v>
       </c>
       <c r="M57">
-        <v>-2.256030157448969e-07</v>
+        <v>-0.002056939433789469</v>
       </c>
       <c r="N57">
         <v>-0.0001007968761851898</v>
@@ -75010,7 +75010,7 @@
         <v>429</v>
       </c>
       <c r="M58">
-        <v>-4.158629554609538e-07</v>
+        <v>-0.003791637754998408</v>
       </c>
       <c r="N58">
         <v>-0.0004395617955076511</v>
